--- a/ID.xlsx
+++ b/ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHRUV\OneDrive\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9413E2-86CE-4626-873B-0F4F5027A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955911D-36D6-4DA9-B57E-9F3F9A3CED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="339">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1034,6 +1034,9 @@
   </si>
   <si>
     <t>https://www.codechef.com/users/marmat@di123</t>
+  </si>
+  <si>
+    <t>https://www.leetcode.com/202311088</t>
   </si>
 </sst>
 </file>
@@ -1041,9 +1044,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1058,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1089,17 +1100,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1402,12 +1416,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" customWidth="1"/>
     <col min="6" max="6" width="68.6640625" customWidth="1"/>
     <col min="7" max="7" width="78" customWidth="1"/>
   </cols>
@@ -1933,8 +1951,8 @@
       <c r="E27" t="s">
         <v>111</v>
       </c>
-      <c r="F27">
-        <v>202311088</v>
+      <c r="F27" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="H27" t="s">
         <v>112</v>
@@ -3083,6 +3101,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{CE2603C8-28F9-4633-93C8-848114396D16}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ID.xlsx
+++ b/ID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHRUV\OneDrive\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHRUV\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955911D-36D6-4DA9-B57E-9F3F9A3CED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D8E809-A9C8-47DC-8881-365C9845A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,15 +226,9 @@
     <t>202011033@diu.iiitvadodara.ac.in</t>
   </si>
   <si>
-    <t>https://www.codechef.com/users/jigyashuguptaa</t>
-  </si>
-  <si>
     <t>https://www.leetcode.com/jigyashu72</t>
   </si>
   <si>
-    <t>https://codeforces.com/profile/jigyashuguptaa</t>
-  </si>
-  <si>
     <t>Abhijeet Yadav</t>
   </si>
   <si>
@@ -1037,6 +1031,12 @@
   </si>
   <si>
     <t>https://www.leetcode.com/202311088</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/users/jigyashu_gupta</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/profile/jigyashu_guptaa</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,13 +1594,13 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1651,13 +1651,13 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H12" t="s">
@@ -1740,14 +1740,14 @@
       <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
+      <c r="G16" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1755,16 +1755,16 @@
         <v>45269.624150393523</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1772,16 +1772,16 @@
         <v>45269.814087997693</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1789,22 +1789,22 @@
         <v>45269.822804641197</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
         <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1812,16 +1812,16 @@
         <v>45269.823587615741</v>
       </c>
       <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1829,19 +1829,19 @@
         <v>45269.867794791673</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1849,16 +1849,16 @@
         <v>45269.88636449074</v>
       </c>
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
         <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1866,16 +1866,16 @@
         <v>45269.897909282408</v>
       </c>
       <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
         <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1883,16 +1883,16 @@
         <v>45269.903078379633</v>
       </c>
       <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1900,22 +1900,22 @@
         <v>45269.90523650463</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
       </c>
       <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
         <v>101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1923,16 +1923,16 @@
         <v>45269.913100243059</v>
       </c>
       <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>105</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1940,22 +1940,22 @@
         <v>45269.91562190972</v>
       </c>
       <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
         <v>108</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>109</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" t="s">
         <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1963,25 +1963,25 @@
         <v>45269.919969027767</v>
       </c>
       <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>115</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>116</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>117</v>
-      </c>
-      <c r="H28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1989,22 +1989,22 @@
         <v>45269.92626896991</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
       </c>
       <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
         <v>122</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2012,16 +2012,16 @@
         <v>45269.927278159717</v>
       </c>
       <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
         <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2029,19 +2029,19 @@
         <v>45269.938007002318</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2049,16 +2049,16 @@
         <v>45269.942199247693</v>
       </c>
       <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
         <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2066,16 +2066,16 @@
         <v>45269.973206666669</v>
       </c>
       <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
         <v>135</v>
-      </c>
-      <c r="C33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2083,25 +2083,25 @@
         <v>45269.976950231481</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" t="s">
         <v>140</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>141</v>
-      </c>
-      <c r="G34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2109,19 +2109,19 @@
         <v>45269.982956944441</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2129,19 +2129,19 @@
         <v>45269.983181527779</v>
       </c>
       <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
         <v>148</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>149</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>150</v>
-      </c>
-      <c r="F36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2149,16 +2149,16 @@
         <v>45269.984463287037</v>
       </c>
       <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
         <v>153</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2166,22 +2166,22 @@
         <v>45269.990259467602</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
       </c>
       <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" t="s">
         <v>158</v>
-      </c>
-      <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2189,19 +2189,19 @@
         <v>45269.992802361106</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2209,22 +2209,22 @@
         <v>45270.001214629629</v>
       </c>
       <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
         <v>165</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>166</v>
       </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>167</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2232,16 +2232,16 @@
         <v>45270.005562199083</v>
       </c>
       <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
         <v>170</v>
-      </c>
-      <c r="C41" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2249,16 +2249,16 @@
         <v>45270.409378078701</v>
       </c>
       <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
         <v>173</v>
-      </c>
-      <c r="C42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2266,16 +2266,16 @@
         <v>45270.464163518518</v>
       </c>
       <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
         <v>176</v>
-      </c>
-      <c r="C43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2283,16 +2283,16 @@
         <v>45270.479719340277</v>
       </c>
       <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
         <v>179</v>
-      </c>
-      <c r="C44" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2300,16 +2300,16 @@
         <v>45270.481615520832</v>
       </c>
       <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
         <v>182</v>
-      </c>
-      <c r="C45" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2317,16 +2317,16 @@
         <v>45270.491662766202</v>
       </c>
       <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
         <v>185</v>
-      </c>
-      <c r="C46" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2334,10 +2334,10 @@
         <v>45270.506703576393</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -2348,16 +2348,16 @@
         <v>45270.510249733787</v>
       </c>
       <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
         <v>190</v>
-      </c>
-      <c r="C48" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2365,16 +2365,16 @@
         <v>45270.512992847223</v>
       </c>
       <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
         <v>193</v>
-      </c>
-      <c r="C49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2382,22 +2382,22 @@
         <v>45270.560611342589</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
         <v>36</v>
       </c>
       <c r="E50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" t="s">
         <v>198</v>
-      </c>
-      <c r="F50" t="s">
-        <v>199</v>
-      </c>
-      <c r="G50" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2405,16 +2405,16 @@
         <v>45270.580127870373</v>
       </c>
       <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
         <v>201</v>
-      </c>
-      <c r="C51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2422,25 +2422,25 @@
         <v>45270.606426921287</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
       <c r="E52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" t="s">
         <v>206</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>207</v>
-      </c>
-      <c r="G52" t="s">
-        <v>208</v>
-      </c>
-      <c r="H52" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2448,19 +2448,19 @@
         <v>45270.635004999996</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2468,22 +2468,22 @@
         <v>45270.656655092593</v>
       </c>
       <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
         <v>214</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>215</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>216</v>
       </c>
-      <c r="E54" t="s">
+      <c r="I54" t="s">
         <v>217</v>
-      </c>
-      <c r="F54" t="s">
-        <v>218</v>
-      </c>
-      <c r="I54" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2491,19 +2491,19 @@
         <v>45270.745123425928</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2511,19 +2511,19 @@
         <v>45270.75333615741</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2531,16 +2531,16 @@
         <v>45270.82408997685</v>
       </c>
       <c r="B57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" t="s">
         <v>228</v>
       </c>
-      <c r="C57" t="s">
+      <c r="G57" t="s">
         <v>229</v>
-      </c>
-      <c r="D57" t="s">
-        <v>230</v>
-      </c>
-      <c r="G57" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2548,16 +2548,16 @@
         <v>45270.8856103125</v>
       </c>
       <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
         <v>232</v>
-      </c>
-      <c r="C58" t="s">
-        <v>233</v>
-      </c>
-      <c r="D58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2565,19 +2565,19 @@
         <v>45270.89964787037</v>
       </c>
       <c r="B59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
         <v>235</v>
       </c>
-      <c r="C59" t="s">
+      <c r="G59" t="s">
         <v>236</v>
-      </c>
-      <c r="D59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" t="s">
-        <v>237</v>
-      </c>
-      <c r="G59" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2585,16 +2585,16 @@
         <v>45270.943095069437</v>
       </c>
       <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s">
         <v>239</v>
-      </c>
-      <c r="C60" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2602,19 +2602,19 @@
         <v>45270.994730787039</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2622,19 +2622,19 @@
         <v>45271.008147812499</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2642,19 +2642,19 @@
         <v>45271.018631863422</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2662,25 +2662,25 @@
         <v>45271.113368217593</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
       </c>
       <c r="E64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" t="s">
+        <v>255</v>
+      </c>
+      <c r="G64" t="s">
         <v>256</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>257</v>
-      </c>
-      <c r="G64" t="s">
-        <v>258</v>
-      </c>
-      <c r="H64" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2688,16 +2688,16 @@
         <v>45271.402641736109</v>
       </c>
       <c r="B65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
         <v>260</v>
-      </c>
-      <c r="C65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2705,16 +2705,16 @@
         <v>45271.433287627318</v>
       </c>
       <c r="B66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
         <v>263</v>
-      </c>
-      <c r="C66" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2722,16 +2722,16 @@
         <v>45271.437791284719</v>
       </c>
       <c r="B67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
         <v>266</v>
-      </c>
-      <c r="C67" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2739,16 +2739,16 @@
         <v>45271.825446770832</v>
       </c>
       <c r="B68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
         <v>269</v>
-      </c>
-      <c r="C68" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,10 +2756,10 @@
         <v>45271.913400231482</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
@@ -2770,13 +2770,13 @@
         <v>45271.914647291669</v>
       </c>
       <c r="B70" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" t="s">
         <v>274</v>
-      </c>
-      <c r="C70" t="s">
-        <v>275</v>
-      </c>
-      <c r="D70" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2784,16 +2784,16 @@
         <v>45271.916478599538</v>
       </c>
       <c r="B71" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
         <v>277</v>
-      </c>
-      <c r="C71" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2801,19 +2801,19 @@
         <v>45271.924444629629</v>
       </c>
       <c r="B72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" t="s">
         <v>280</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>281</v>
       </c>
-      <c r="D72" t="s">
+      <c r="H72" t="s">
         <v>282</v>
-      </c>
-      <c r="E72" t="s">
-        <v>283</v>
-      </c>
-      <c r="H72" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2821,16 +2821,16 @@
         <v>45271.924570844909</v>
       </c>
       <c r="B73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
         <v>285</v>
-      </c>
-      <c r="C73" t="s">
-        <v>286</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2838,16 +2838,16 @@
         <v>45271.947382523147</v>
       </c>
       <c r="B74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
         <v>288</v>
-      </c>
-      <c r="C74" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2855,16 +2855,16 @@
         <v>45271.950894340283</v>
       </c>
       <c r="B75" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" t="s">
         <v>291</v>
       </c>
-      <c r="C75" t="s">
+      <c r="F75" t="s">
         <v>292</v>
-      </c>
-      <c r="D75" t="s">
-        <v>293</v>
-      </c>
-      <c r="F75" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2872,16 +2872,16 @@
         <v>45271.958575949073</v>
       </c>
       <c r="B76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" t="s">
         <v>295</v>
-      </c>
-      <c r="C76" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" t="s">
-        <v>106</v>
-      </c>
-      <c r="F76" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2889,16 +2889,16 @@
         <v>45271.961886157413</v>
       </c>
       <c r="B77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
         <v>298</v>
-      </c>
-      <c r="C77" t="s">
-        <v>299</v>
-      </c>
-      <c r="D77" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2906,16 +2906,16 @@
         <v>45271.965534490737</v>
       </c>
       <c r="B78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
         <v>301</v>
-      </c>
-      <c r="C78" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2923,16 +2923,16 @@
         <v>45271.966237025466</v>
       </c>
       <c r="B79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" t="s">
+        <v>274</v>
+      </c>
+      <c r="H79" t="s">
         <v>304</v>
-      </c>
-      <c r="C79" t="s">
-        <v>305</v>
-      </c>
-      <c r="D79" t="s">
-        <v>276</v>
-      </c>
-      <c r="H79" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2940,19 +2940,19 @@
         <v>45271.976197615739</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F80" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2960,16 +2960,16 @@
         <v>45271.991232743057</v>
       </c>
       <c r="B81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" t="s">
         <v>311</v>
-      </c>
-      <c r="C81" t="s">
-        <v>312</v>
-      </c>
-      <c r="D81" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2977,16 +2977,16 @@
         <v>45271.993642627313</v>
       </c>
       <c r="B82" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
         <v>314</v>
-      </c>
-      <c r="C82" t="s">
-        <v>315</v>
-      </c>
-      <c r="D82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2994,16 +2994,16 @@
         <v>45271.995725613429</v>
       </c>
       <c r="B83" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" t="s">
+        <v>316</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
         <v>317</v>
-      </c>
-      <c r="C83" t="s">
-        <v>318</v>
-      </c>
-      <c r="D83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3011,16 +3011,16 @@
         <v>45272.010167222223</v>
       </c>
       <c r="B84" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
         <v>320</v>
-      </c>
-      <c r="C84" t="s">
-        <v>321</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3028,16 +3028,16 @@
         <v>45272.032871006937</v>
       </c>
       <c r="B85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" t="s">
+        <v>322</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
         <v>323</v>
-      </c>
-      <c r="C85" t="s">
-        <v>324</v>
-      </c>
-      <c r="D85" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3045,22 +3045,22 @@
         <v>45272.962933194452</v>
       </c>
       <c r="B86" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" t="s">
         <v>326</v>
       </c>
-      <c r="C86" t="s">
+      <c r="F86" t="s">
         <v>327</v>
       </c>
-      <c r="D86" t="s">
-        <v>110</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>328</v>
-      </c>
-      <c r="F86" t="s">
-        <v>329</v>
-      </c>
-      <c r="H86" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3068,19 +3068,19 @@
         <v>45273.469444502312</v>
       </c>
       <c r="B87" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" t="s">
+        <v>280</v>
+      </c>
+      <c r="E87" t="s">
         <v>331</v>
       </c>
-      <c r="C87" t="s">
+      <c r="H87" t="s">
         <v>332</v>
-      </c>
-      <c r="D87" t="s">
-        <v>282</v>
-      </c>
-      <c r="E87" t="s">
-        <v>333</v>
-      </c>
-      <c r="H87" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3088,21 +3088,30 @@
         <v>45280.883734594907</v>
       </c>
       <c r="B88" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" t="s">
+        <v>334</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" t="s">
         <v>335</v>
-      </c>
-      <c r="C88" t="s">
-        <v>336</v>
-      </c>
-      <c r="D88" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F27" r:id="rId1" xr:uid="{CE2603C8-28F9-4633-93C8-848114396D16}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{5186EE88-C9CA-4796-871C-53E0D9BCA8C6}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{CEEBFB80-B6CD-4FB5-8B2A-034CFF82AEA1}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{191F6BA9-9215-4515-A4DE-88CE81215BB2}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{0F52EB65-756B-483B-8BFE-671DF3AB1BDF}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{120BFA84-435E-4B0F-83E9-ACC4A9CB0497}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{93A03DD9-6DF5-4BC0-89F2-83C7AD0CA722}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{FA13C0AC-C66B-4DF9-AC7F-AEF0F70F8E36}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{6F105A5D-A1ED-4942-8AAE-AD503B28436A}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{05A2F6CD-97EB-4648-ACB0-3DA555F98102}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
